--- a/PriporityApp_2/wwwroot/Uploads/PickupTemplate (23).xlsx
+++ b/PriporityApp_2/wwwroot/Uploads/PickupTemplate (23).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e-dmabdel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2259BB7-4BF9-41B8-AFAF-5A2E3F1E509E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD065F0-FDAA-4C8B-92DD-AC0D91DFF62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,7 +557,7 @@
         <v>44609</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -578,7 +578,7 @@
         <v>44609</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
